--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Wandering Albatross_Kerguelen.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Wandering Albatross_Kerguelen.xlsx
@@ -12154,13 +12154,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{461E2407-AF8A-44F5-9228-F47F1F98BA18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6180F7C5-619E-4E91-A9D4-B214A5099FC0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F4E3B46-75F6-4A7C-A170-B562F2060A22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16FCBEA7-A45D-4F8A-A7B0-56E979900969}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B967EA5-F7A0-499B-B147-387A9B015703}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2ECFB78-C79A-4A42-A6D3-F6B913BC7332}"/>
 </file>